--- a/data-raw/wiedemann.safflower.xlsx
+++ b/data-raw/wiedemann.safflower.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89774AAC-8EEE-4874-A0FD-A297331C51ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="12" windowWidth="15168" windowHeight="7776"/>
+    <workbookView xWindow="2140" yWindow="1100" windowWidth="7590" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,14 +98,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -137,7 +146,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -209,7 +218,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -382,19 +391,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.81640625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="4.77734375" style="1"/>
+    <col min="1" max="16384" width="4.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>33</v>
       </c>
@@ -495,7 +504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -599,7 +608,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -703,7 +712,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -807,7 +816,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -911,7 +920,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1015,7 +1024,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1119,7 +1128,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1223,7 +1232,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1327,7 +1336,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1431,7 +1440,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1535,7 +1544,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1639,7 +1648,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1743,7 +1752,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1847,7 +1856,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1951,7 +1960,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2055,7 +2064,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2159,7 +2168,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2263,7 +2272,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2367,7 +2376,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2471,7 +2480,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2575,7 +2584,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2679,7 +2688,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2783,7 +2792,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2887,7 +2896,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2991,7 +3000,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3095,7 +3104,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3199,7 +3208,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3303,7 +3312,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3407,7 +3416,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3511,7 +3520,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3615,7 +3624,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3719,7 +3728,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3823,7 +3832,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3927,7 +3936,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4031,7 +4040,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4135,7 +4144,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4239,7 +4248,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4343,7 +4352,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4447,7 +4456,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4551,7 +4560,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4655,7 +4664,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4759,7 +4768,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4863,7 +4872,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4967,7 +4976,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -5071,7 +5080,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -5175,7 +5184,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -5279,7 +5288,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -5383,7 +5392,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -5487,7 +5496,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -5591,7 +5600,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -5695,7 +5704,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -5799,7 +5808,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -5903,7 +5912,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6007,7 +6016,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
